--- a/teaching/traditional_assets/database/data/peru/peru_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/peru/peru_insurance_general.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.06759999999999999</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="E2">
-        <v>0.0864</v>
+        <v>0.05860000000000001</v>
       </c>
       <c r="G2">
-        <v>0.09011487927357778</v>
+        <v>0.1339950372208437</v>
       </c>
       <c r="H2">
-        <v>0.09011487927357778</v>
+        <v>0.1339950372208437</v>
       </c>
       <c r="I2">
-        <v>0.1127467840682397</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="J2">
-        <v>0.09796272418919551</v>
+        <v>0.08179868458678867</v>
       </c>
       <c r="K2">
-        <v>120.9</v>
+        <v>19</v>
       </c>
       <c r="L2">
-        <v>0.08316709087156911</v>
+        <v>0.07857733664185276</v>
       </c>
       <c r="M2">
-        <v>19.21</v>
+        <v>23.5</v>
       </c>
       <c r="N2">
-        <v>0.03234006734006734</v>
+        <v>0.2800953516090584</v>
       </c>
       <c r="O2">
-        <v>0.1588916459884202</v>
+        <v>1.236842105263158</v>
       </c>
       <c r="P2">
-        <v>19.21</v>
+        <v>23.5</v>
       </c>
       <c r="Q2">
-        <v>0.03234006734006734</v>
+        <v>0.2800953516090584</v>
       </c>
       <c r="R2">
-        <v>0.1588916459884202</v>
+        <v>1.236842105263158</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,67 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>149.1</v>
+        <v>10.6</v>
       </c>
       <c r="V2">
-        <v>0.251010101010101</v>
+        <v>0.1263408820023838</v>
       </c>
       <c r="W2">
-        <v>0.1902608766188433</v>
+        <v>0.1556101556101556</v>
       </c>
       <c r="X2">
-        <v>0.05370807508328835</v>
+        <v>0.04817682442461023</v>
       </c>
       <c r="Y2">
-        <v>0.1365528015355549</v>
+        <v>0.1074333311855454</v>
       </c>
       <c r="Z2">
-        <v>2.904611572890025</v>
+        <v>2.522823308466795</v>
       </c>
       <c r="AA2">
-        <v>0.2707255510604898</v>
+        <v>0.2063636280774741</v>
       </c>
       <c r="AB2">
-        <v>0.0534439792340077</v>
+        <v>0.04817682442461023</v>
       </c>
       <c r="AC2">
-        <v>0.2172815718264821</v>
+        <v>0.1581868036528639</v>
       </c>
       <c r="AD2">
-        <v>12.9</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>12.9</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>-136.2</v>
+        <v>-10.6</v>
       </c>
       <c r="AH2">
-        <v>0.02125556104794859</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.01701173677963867</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.2975098296199213</v>
+        <v>-0.1446111869031378</v>
       </c>
       <c r="AK2">
-        <v>-0.2235718975705843</v>
+        <v>-0.09532374100719423</v>
       </c>
       <c r="AL2">
-        <v>4.12</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>4.12</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.07263513513513514</v>
-      </c>
-      <c r="AO2">
-        <v>39.78155339805824</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-0.7668918918918919</v>
-      </c>
-      <c r="AQ2">
-        <v>39.78155339805824</v>
+        <v>-0.3271604938271605</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +710,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RIMAC Seguros y Reaseguros S.A. (BVL:RIMSEGC1)</t>
+          <t>Mapfre Perú Compañía de Seguros y Reaseguros S.A. (BVL:MAPFREC1)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,46 +719,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0693</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="E3">
-        <v>0.123</v>
+        <v>0.05860000000000001</v>
       </c>
       <c r="G3">
-        <v>0.08734446627373936</v>
+        <v>0.1339950372208437</v>
       </c>
       <c r="H3">
-        <v>0.08734446627373936</v>
+        <v>0.1339950372208437</v>
       </c>
       <c r="I3">
-        <v>0.1106745252128356</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="J3">
-        <v>0.10617032941929</v>
+        <v>0.08179868458678867</v>
       </c>
       <c r="K3">
-        <v>98.90000000000001</v>
+        <v>19</v>
       </c>
       <c r="L3">
-        <v>0.08095939751146039</v>
+        <v>0.07857733664185276</v>
       </c>
       <c r="M3">
-        <v>13.9</v>
+        <v>23.5</v>
       </c>
       <c r="N3">
-        <v>0.02897644361058995</v>
+        <v>0.2800953516090584</v>
       </c>
       <c r="O3">
-        <v>0.1405460060667341</v>
+        <v>1.236842105263158</v>
       </c>
       <c r="P3">
-        <v>13.9</v>
+        <v>23.5</v>
       </c>
       <c r="Q3">
-        <v>0.02897644361058995</v>
+        <v>0.2800953516090584</v>
       </c>
       <c r="R3">
-        <v>0.1405460060667341</v>
+        <v>1.236842105263158</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,207 +767,67 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>103.6</v>
+        <v>10.6</v>
       </c>
       <c r="V3">
-        <v>0.2159683135292891</v>
+        <v>0.1263408820023838</v>
       </c>
       <c r="W3">
-        <v>0.1959579948484248</v>
+        <v>0.1556101556101556</v>
       </c>
       <c r="X3">
-        <v>0.05403211790319591</v>
+        <v>0.04817682442461023</v>
       </c>
       <c r="Y3">
-        <v>0.1419258769452289</v>
+        <v>0.1074333311855454</v>
       </c>
       <c r="Z3">
-        <v>3.084225409008281</v>
+        <v>2.522823308466795</v>
       </c>
       <c r="AA3">
-        <v>0.3274532276777536</v>
+        <v>0.2063636280774741</v>
       </c>
       <c r="AB3">
-        <v>0.05350392620463461</v>
+        <v>0.04817682442461023</v>
       </c>
       <c r="AC3">
-        <v>0.273949301473119</v>
+        <v>0.1581868036528639</v>
       </c>
       <c r="AD3">
-        <v>12.9</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>12.9</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-90.69999999999999</v>
+        <v>-10.6</v>
       </c>
       <c r="AH3">
-        <v>0.02618757612667479</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.02065321805955812</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.2331619537275064</v>
+        <v>-0.1446111869031378</v>
       </c>
       <c r="AK3">
-        <v>-0.1740882917466411</v>
+        <v>-0.09532374100719423</v>
       </c>
       <c r="AL3">
-        <v>3.22</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>3.22</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.08704453441295547</v>
-      </c>
-      <c r="AO3">
-        <v>41.98757763975155</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-0.6120107962213225</v>
-      </c>
-      <c r="AQ3">
-        <v>41.98757763975155</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Peru</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mapfre Perú Compañía de Seguros y Reaseguros S.A. (BVL:MAPFREC1)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Insurance (General)</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>0.0659</v>
-      </c>
-      <c r="E4">
-        <v>0.0498</v>
-      </c>
-      <c r="G4">
-        <v>0.1046962516156829</v>
-      </c>
-      <c r="H4">
-        <v>0.1046962516156829</v>
-      </c>
-      <c r="I4">
-        <v>0.1236535975872469</v>
-      </c>
-      <c r="J4">
-        <v>0.09625755317480739</v>
-      </c>
-      <c r="K4">
-        <v>22</v>
-      </c>
-      <c r="L4">
-        <v>0.09478672985781991</v>
-      </c>
-      <c r="M4">
-        <v>5.31</v>
-      </c>
-      <c r="N4">
-        <v>0.04645669291338583</v>
-      </c>
-      <c r="O4">
-        <v>0.2413636363636363</v>
-      </c>
-      <c r="P4">
-        <v>5.31</v>
-      </c>
-      <c r="Q4">
-        <v>0.04645669291338583</v>
-      </c>
-      <c r="R4">
-        <v>0.2413636363636363</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>45.5</v>
-      </c>
-      <c r="V4">
-        <v>0.3980752405949257</v>
-      </c>
-      <c r="W4">
-        <v>0.1845637583892617</v>
-      </c>
-      <c r="X4">
-        <v>0.05338403226338079</v>
-      </c>
-      <c r="Y4">
-        <v>0.1311797261258809</v>
-      </c>
-      <c r="Z4">
-        <v>2.223180076628352</v>
-      </c>
-      <c r="AA4">
-        <v>0.213997874443226</v>
-      </c>
-      <c r="AB4">
-        <v>0.05338403226338079</v>
-      </c>
-      <c r="AC4">
-        <v>0.1606138421798452</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>-45.5</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>-0.6613372093023256</v>
-      </c>
-      <c r="AK4">
-        <v>-0.5158730158730159</v>
-      </c>
-      <c r="AL4">
-        <v>0.9</v>
-      </c>
-      <c r="AM4">
-        <v>0.9</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>31.88888888888889</v>
-      </c>
-      <c r="AP4">
-        <v>-1.547619047619048</v>
-      </c>
-      <c r="AQ4">
-        <v>31.88888888888889</v>
+        <v>-0.3271604938271605</v>
       </c>
     </row>
   </sheetData>
